--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.183528</v>
+        <v>20.92800266666666</v>
       </c>
       <c r="H2">
-        <v>108.550584</v>
+        <v>62.78400799999999</v>
       </c>
       <c r="I2">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="J2">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>244.048355969784</v>
+        <v>131.9687619035893</v>
       </c>
       <c r="R2">
-        <v>2196.435203728056</v>
+        <v>1187.718857132304</v>
       </c>
       <c r="S2">
-        <v>0.0008584112430484295</v>
+        <v>0.001414262497368807</v>
       </c>
       <c r="T2">
-        <v>0.0008584112430484296</v>
+        <v>0.001414262497368807</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.183528</v>
+        <v>20.92800266666666</v>
       </c>
       <c r="H3">
-        <v>108.550584</v>
+        <v>62.78400799999999</v>
       </c>
       <c r="I3">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="J3">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>6604.640238595273</v>
+        <v>3820.023534623153</v>
       </c>
       <c r="R3">
-        <v>59441.76214735745</v>
+        <v>34380.21181160837</v>
       </c>
       <c r="S3">
-        <v>0.02323104130151236</v>
+        <v>0.04093783972930354</v>
       </c>
       <c r="T3">
-        <v>0.02323104130151237</v>
+        <v>0.04093783972930354</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.183528</v>
+        <v>20.92800266666666</v>
       </c>
       <c r="H4">
-        <v>108.550584</v>
+        <v>62.78400799999999</v>
       </c>
       <c r="I4">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="J4">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>9014.507781501768</v>
+        <v>2666.152052427714</v>
       </c>
       <c r="R4">
-        <v>81130.57003351591</v>
+        <v>23995.36847184943</v>
       </c>
       <c r="S4">
-        <v>0.03170746551206739</v>
+        <v>0.02857220758641395</v>
       </c>
       <c r="T4">
-        <v>0.0317074655120674</v>
+        <v>0.02857220758641395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.183528</v>
+        <v>20.92800266666666</v>
       </c>
       <c r="H5">
-        <v>108.550584</v>
+        <v>62.78400799999999</v>
       </c>
       <c r="I5">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="J5">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>631.7803678770241</v>
+        <v>406.5055517013369</v>
       </c>
       <c r="R5">
-        <v>5686.023310893217</v>
+        <v>3658.549965312032</v>
       </c>
       <c r="S5">
-        <v>0.002222212760941757</v>
+        <v>0.00435637607302415</v>
       </c>
       <c r="T5">
-        <v>0.002222212760941757</v>
+        <v>0.00435637607302415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.183528</v>
+        <v>20.92800266666666</v>
       </c>
       <c r="H6">
-        <v>108.550584</v>
+        <v>62.78400799999999</v>
       </c>
       <c r="I6">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="J6">
-        <v>0.08181008990825493</v>
+        <v>0.1042850690200336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>6763.826196412585</v>
+        <v>2706.479553182285</v>
       </c>
       <c r="R6">
-        <v>60874.43576771326</v>
+        <v>24358.31597864056</v>
       </c>
       <c r="S6">
-        <v>0.02379095909068498</v>
+        <v>0.02900438313392319</v>
       </c>
       <c r="T6">
-        <v>0.02379095909068498</v>
+        <v>0.02900438313392319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.23263799999999</v>
+        <v>62.232638</v>
       </c>
       <c r="H7">
         <v>186.697914</v>
       </c>
       <c r="I7">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="J7">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>419.7427346377806</v>
+        <v>392.429431401748</v>
       </c>
       <c r="R7">
-        <v>3777.684611740026</v>
+        <v>3531.864882615732</v>
       </c>
       <c r="S7">
-        <v>0.001476395451094844</v>
+        <v>0.004205527275467773</v>
       </c>
       <c r="T7">
-        <v>0.001476395451094844</v>
+        <v>0.004205527275467772</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>62.23263799999999</v>
+        <v>62.232638</v>
       </c>
       <c r="H8">
         <v>186.697914</v>
       </c>
       <c r="I8">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="J8">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>11359.42811018133</v>
       </c>
       <c r="R8">
-        <v>102234.8529916319</v>
+        <v>102234.852991632</v>
       </c>
       <c r="S8">
-        <v>0.03995544557402107</v>
+        <v>0.1217349692158439</v>
       </c>
       <c r="T8">
-        <v>0.03995544557402108</v>
+        <v>0.1217349692158439</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>62.23263799999999</v>
+        <v>62.232638</v>
       </c>
       <c r="H9">
         <v>186.697914</v>
       </c>
       <c r="I9">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="J9">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>15504.19847159134</v>
+        <v>7928.213608074734</v>
       </c>
       <c r="R9">
-        <v>139537.7862443221</v>
+        <v>71353.92247267261</v>
       </c>
       <c r="S9">
-        <v>0.0545341853649532</v>
+        <v>0.08496385822896907</v>
       </c>
       <c r="T9">
-        <v>0.05453418536495321</v>
+        <v>0.08496385822896907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>62.23263799999999</v>
+        <v>62.232638</v>
       </c>
       <c r="H10">
         <v>186.697914</v>
       </c>
       <c r="I10">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="J10">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>1086.60932481757</v>
+        <v>1208.806843488851</v>
       </c>
       <c r="R10">
-        <v>9779.483923358135</v>
+        <v>10879.26159139966</v>
       </c>
       <c r="S10">
-        <v>0.003822019851427114</v>
+        <v>0.012954354959835</v>
       </c>
       <c r="T10">
-        <v>0.003822019851427115</v>
+        <v>0.012954354959835</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>62.23263799999999</v>
+        <v>62.232638</v>
       </c>
       <c r="H11">
         <v>186.697914</v>
       </c>
       <c r="I11">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="J11">
-        <v>0.1407065035230363</v>
+        <v>0.3101077084372553</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>11633.21462672908</v>
+        <v>8048.133640381555</v>
       </c>
       <c r="R11">
-        <v>104698.9316405617</v>
+        <v>72433.20276343398</v>
       </c>
       <c r="S11">
-        <v>0.04091845728154003</v>
+        <v>0.08624899875713962</v>
       </c>
       <c r="T11">
-        <v>0.04091845728154003</v>
+        <v>0.08624899875713959</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>203.1252746666667</v>
+        <v>51.101662</v>
       </c>
       <c r="H12">
-        <v>609.375824</v>
+        <v>153.304986</v>
       </c>
       <c r="I12">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559695</v>
       </c>
       <c r="J12">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559696</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>1370.026420262579</v>
+        <v>322.239210916052</v>
       </c>
       <c r="R12">
-        <v>12330.23778236322</v>
+        <v>2900.152898244468</v>
       </c>
       <c r="S12">
-        <v>0.004818905981781738</v>
+        <v>0.00345332353358916</v>
       </c>
       <c r="T12">
-        <v>0.004818905981781738</v>
+        <v>0.00345332353358916</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>203.1252746666667</v>
+        <v>51.101662</v>
       </c>
       <c r="H13">
-        <v>609.375824</v>
+        <v>153.304986</v>
       </c>
       <c r="I13">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559695</v>
       </c>
       <c r="J13">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559696</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>37076.79810932708</v>
+        <v>9327.672334889374</v>
       </c>
       <c r="R13">
-        <v>333691.1829839437</v>
+        <v>83949.05101400435</v>
       </c>
       <c r="S13">
-        <v>0.1304132544831553</v>
+        <v>0.09996136192151231</v>
       </c>
       <c r="T13">
-        <v>0.1304132544831553</v>
+        <v>0.09996136192151232</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>203.1252746666667</v>
+        <v>51.101662</v>
       </c>
       <c r="H14">
-        <v>609.375824</v>
+        <v>153.304986</v>
       </c>
       <c r="I14">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559695</v>
       </c>
       <c r="J14">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559696</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>50605.19165246547</v>
+        <v>6510.167415105167</v>
       </c>
       <c r="R14">
-        <v>455446.7248721892</v>
+        <v>58591.5067359465</v>
       </c>
       <c r="S14">
-        <v>0.1779977795731403</v>
+        <v>0.06976715924259383</v>
       </c>
       <c r="T14">
-        <v>0.1779977795731403</v>
+        <v>0.06976715924259384</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>203.1252746666667</v>
+        <v>51.101662</v>
       </c>
       <c r="H15">
-        <v>609.375824</v>
+        <v>153.304986</v>
       </c>
       <c r="I15">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559695</v>
       </c>
       <c r="J15">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559696</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>3546.656941634553</v>
+        <v>992.5987508235494</v>
       </c>
       <c r="R15">
-        <v>31919.91247471098</v>
+        <v>8933.388757411945</v>
       </c>
       <c r="S15">
-        <v>0.01247494654015125</v>
+        <v>0.01063732937989085</v>
       </c>
       <c r="T15">
-        <v>0.01247494654015125</v>
+        <v>0.01063732937989085</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>203.1252746666667</v>
+        <v>51.101662</v>
       </c>
       <c r="H16">
-        <v>609.375824</v>
+        <v>153.304986</v>
       </c>
       <c r="I16">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559695</v>
       </c>
       <c r="J16">
-        <v>0.4592613794630246</v>
+        <v>0.2546416126559696</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>37970.42825519671</v>
+        <v>6608.638461085448</v>
       </c>
       <c r="R16">
-        <v>341733.8542967704</v>
+        <v>59477.74614976903</v>
       </c>
       <c r="S16">
-        <v>0.133556492884796</v>
+        <v>0.0708224385783834</v>
       </c>
       <c r="T16">
-        <v>0.133556492884796</v>
+        <v>0.0708224385783834</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.574566000000001</v>
+        <v>4.923547333333333</v>
       </c>
       <c r="H17">
-        <v>16.723698</v>
+        <v>14.770642</v>
       </c>
       <c r="I17">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="J17">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>37.59897784276467</v>
+        <v>31.04713125771067</v>
       </c>
       <c r="R17">
-        <v>338.3908005848821</v>
+        <v>279.424181319396</v>
       </c>
       <c r="S17">
-        <v>0.0001322499599684009</v>
+        <v>0.0003327211133551811</v>
       </c>
       <c r="T17">
-        <v>0.0001322499599684009</v>
+        <v>0.0003327211133551811</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.574566000000001</v>
+        <v>4.923547333333333</v>
       </c>
       <c r="H18">
-        <v>16.723698</v>
+        <v>14.770642</v>
       </c>
       <c r="I18">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="J18">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>1017.534910258201</v>
+        <v>898.7033778011306</v>
       </c>
       <c r="R18">
-        <v>9157.814192323807</v>
+        <v>8088.330400210175</v>
       </c>
       <c r="S18">
-        <v>0.003579058763534794</v>
+        <v>0.009631085911159409</v>
       </c>
       <c r="T18">
-        <v>0.003579058763534794</v>
+        <v>0.009631085911159408</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.574566000000001</v>
+        <v>4.923547333333333</v>
       </c>
       <c r="H19">
-        <v>16.723698</v>
+        <v>14.770642</v>
       </c>
       <c r="I19">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="J19">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>1388.807873723513</v>
+        <v>627.2421710314354</v>
       </c>
       <c r="R19">
-        <v>12499.27086351162</v>
+        <v>5645.179539282919</v>
       </c>
       <c r="S19">
-        <v>0.004884967524165789</v>
+        <v>0.006721932269895935</v>
       </c>
       <c r="T19">
-        <v>0.00488496752416579</v>
+        <v>0.006721932269895935</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.574566000000001</v>
+        <v>4.923547333333333</v>
       </c>
       <c r="H20">
-        <v>16.723698</v>
+        <v>14.770642</v>
       </c>
       <c r="I20">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="J20">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>97.33438260179469</v>
+        <v>95.63498996739645</v>
       </c>
       <c r="R20">
-        <v>876.0094434161522</v>
+        <v>860.7149097065681</v>
       </c>
       <c r="S20">
-        <v>0.0003423621848569339</v>
+        <v>0.001024886327613962</v>
       </c>
       <c r="T20">
-        <v>0.000342362184856934</v>
+        <v>0.001024886327613962</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.574566000000001</v>
+        <v>4.923547333333333</v>
       </c>
       <c r="H21">
-        <v>16.723698</v>
+        <v>14.770642</v>
       </c>
       <c r="I21">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="J21">
-        <v>0.01260396016827052</v>
+        <v>0.02453423203628873</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>1042.059678216865</v>
+        <v>636.7296678538823</v>
       </c>
       <c r="R21">
-        <v>9378.537103951783</v>
+        <v>5730.56701068494</v>
       </c>
       <c r="S21">
-        <v>0.003665321735744603</v>
+        <v>0.006823606414264244</v>
       </c>
       <c r="T21">
-        <v>0.003665321735744603</v>
+        <v>0.006823606414264243</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>135.170856</v>
+        <v>61.49486933333333</v>
       </c>
       <c r="H22">
-        <v>405.512568</v>
+        <v>184.484608</v>
       </c>
       <c r="I22">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="J22">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>911.6917836709681</v>
+        <v>387.7771758061226</v>
       </c>
       <c r="R22">
-        <v>8205.226053038712</v>
+        <v>3489.994582255104</v>
       </c>
       <c r="S22">
-        <v>0.003206768077531861</v>
+        <v>0.004155670699395066</v>
       </c>
       <c r="T22">
-        <v>0.003206768077531862</v>
+        <v>0.004155670699395066</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>135.170856</v>
+        <v>61.49486933333333</v>
       </c>
       <c r="H23">
-        <v>405.512568</v>
+        <v>184.484608</v>
       </c>
       <c r="I23">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="J23">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>24672.96374811675</v>
+        <v>11224.76195428184</v>
       </c>
       <c r="R23">
-        <v>222056.6737330507</v>
+        <v>101022.8575885366</v>
       </c>
       <c r="S23">
-        <v>0.08678423338091246</v>
+        <v>0.1202917997020418</v>
       </c>
       <c r="T23">
-        <v>0.08678423338091248</v>
+        <v>0.1202917997020418</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>135.170856</v>
+        <v>61.49486933333333</v>
       </c>
       <c r="H24">
-        <v>405.512568</v>
+        <v>184.484608</v>
       </c>
       <c r="I24">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="J24">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>33675.50928821134</v>
+        <v>7834.224541072981</v>
       </c>
       <c r="R24">
-        <v>303079.5835939021</v>
+        <v>70508.02086965683</v>
       </c>
       <c r="S24">
-        <v>0.1184496231228925</v>
+        <v>0.08395661067503374</v>
       </c>
       <c r="T24">
-        <v>0.1184496231228925</v>
+        <v>0.08395661067503374</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>135.170856</v>
+        <v>61.49486933333333</v>
       </c>
       <c r="H25">
-        <v>405.512568</v>
+        <v>184.484608</v>
       </c>
       <c r="I25">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="J25">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>2360.142801164448</v>
+        <v>1194.476423923826</v>
       </c>
       <c r="R25">
-        <v>21241.28521048004</v>
+        <v>10750.28781531443</v>
       </c>
       <c r="S25">
-        <v>0.008301523309463373</v>
+        <v>0.0128007809270864</v>
       </c>
       <c r="T25">
-        <v>0.008301523309463373</v>
+        <v>0.01280078092708639</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>135.170856</v>
+        <v>61.49486933333333</v>
       </c>
       <c r="H26">
-        <v>405.512568</v>
+        <v>184.484608</v>
       </c>
       <c r="I26">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="J26">
-        <v>0.3056180669374137</v>
+        <v>0.3064313778504528</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>25267.63495268657</v>
+        <v>7952.722919964729</v>
       </c>
       <c r="R26">
-        <v>227408.7145741791</v>
+        <v>71574.50627968255</v>
       </c>
       <c r="S26">
-        <v>0.08887591904661345</v>
+        <v>0.08522651584689579</v>
       </c>
       <c r="T26">
-        <v>0.08887591904661345</v>
+        <v>0.08522651584689578</v>
       </c>
     </row>
   </sheetData>
